--- a/data/Subset1_WithDialogActs/Jeffs group 3_first grade.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Jeffs group 3_first grade.xlsx_with_dialog_acts.xlsx
@@ -665,12 +665,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1977,12 +1977,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2517,12 +2517,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2707,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3711,12 +3711,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4335,12 +4335,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4879,12 +4879,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
